--- a/StructureDefinition-ext-R5-BiologicallyDerivedProduct.productStatus.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProduct.productStatus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProduct.productStatus.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProduct.productStatus.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `BiologicallyDerivedProduct.status` 0..1 `code`
 *  R4: `BiologicallyDerivedProduct.status` 0..1 `code`
 Following are the generation technical comments:
-Element `BiologicallyDerivedProduct.productStatus` is mapped to FHIR R4 element `BiologicallyDerivedProduct.status`.</t>
+Element `BiologicallyDerivedProduct.productStatus` has is mapped to FHIR R4 element `BiologicallyDerivedProduct.status`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProduct.productStatus.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProduct.productStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -362,15 +362,6 @@
   <si>
     <t xml:space="preserve">Coding
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Biologically Derived Product Status.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-biologicallyderived-product-status-for-R4-product-status</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -724,8 +715,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="29.328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="83.234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1328,13 +1319,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -1364,7 +1355,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>107</v>

--- a/StructureDefinition-ext-R5-BiologicallyDerivedProduct.productStatus.xlsx
+++ b/StructureDefinition-ext-R5-BiologicallyDerivedProduct.productStatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `BiologicallyDerivedProduct.status` 0..1 `code`
 *  R4: `BiologicallyDerivedProduct.status` 0..1 `code`
 Following are the generation technical comments:
-Element `BiologicallyDerivedProduct.productStatus` has is mapped to FHIR R4 element `BiologicallyDerivedProduct.status`, but has no comparisons.</t>
+Element `BiologicallyDerivedProduct.productStatus` is mapped to FHIR R4 element `BiologicallyDerivedProduct.status` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -362,6 +362,15 @@
   <si>
     <t xml:space="preserve">Coding
 </t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Biologically Derived Product Status.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/product-status|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -715,8 +724,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="29.328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1319,13 +1328,13 @@
         <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>77</v>
@@ -1355,7 +1364,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>107</v>
